--- a/election_votar_data/SATKANIA/EOCHIA/152403/152403_com_942_male_without_photo_54_2025-11-24.xlsx
+++ b/election_votar_data/SATKANIA/EOCHIA/152403/152403_com_942_male_without_photo_54_2025-11-24.xlsx
@@ -15984,7 +15984,11 @@
           <t>ছাবেরা খাতুন</t>
         </is>
       </c>
-      <c r="G370" s="3" t="inlineStr"/>
+      <c r="G370" s="3" t="inlineStr">
+        <is>
+          <t>১০/১২/১৯৭৯</t>
+        </is>
+      </c>
       <c r="H370" s="5" t="inlineStr">
         <is>
           <t>তাজর পাড়া, পশ্চিম গাটিয়া ডেঙ্গা, সাতকানিয়া, চট্টগ্রাম</t>

--- a/election_votar_data/SATKANIA/EOCHIA/152403/152403_com_942_male_without_photo_54_2025-11-24.xlsx
+++ b/election_votar_data/SATKANIA/EOCHIA/152403/152403_com_942_male_without_photo_54_2025-11-24.xlsx
@@ -15984,11 +15984,7 @@
           <t>ছাবেরা খাতুন</t>
         </is>
       </c>
-      <c r="G370" s="3" t="inlineStr">
-        <is>
-          <t>১০/১২/১৯৭৯</t>
-        </is>
-      </c>
+      <c r="G370" s="3" t="inlineStr"/>
       <c r="H370" s="5" t="inlineStr">
         <is>
           <t>তাজর পাড়া, পশ্চিম গাটিয়া ডেঙ্গা, সাতকানিয়া, চট্টগ্রাম</t>
